--- a/Finetuning.xlsx
+++ b/Finetuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristiancerasuolo/Desktop/Repositories/Synthetic_Off-Road_Semantic_Segmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A235CB3-DCEE-884C-B404-F47B957E12A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1765BF19-955C-E34C-BD30-E8E191AB5EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="780" windowWidth="29140" windowHeight="17340" xr2:uid="{AF618E0A-9467-FF4A-A20E-A1B43C799044}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="17080" xr2:uid="{AF618E0A-9467-FF4A-A20E-A1B43C799044}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
   <si>
     <t>Starting Point</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>RoverDataset_AugNoEncoder_1</t>
+  </si>
+  <si>
+    <t>Dataset</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
@@ -649,6 +652,9 @@
       <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="K2" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
